--- a/data/xlsx/02132019.xlsx
+++ b/data/xlsx/02132019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/s19-web-dev/susa-data-viz/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70FD476E-89E1-AE47-8FE3-9669B18A0ED2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A42430-B721-E948-8730-358672CDDB75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,7 +835,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -1721,14 +1721,14 @@
       <c r="E34" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>138</v>
+      <c r="F34">
+        <v>37.866916000000003</v>
       </c>
       <c r="G34">
-        <v>37.866916000000003</v>
-      </c>
-      <c r="H34">
         <v>-122.258786</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:8">
